--- a/changes/45-ammo.xlsx
+++ b/changes/45-ammo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DF6CDE-BFB2-45E9-BD69-136ED777E1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38474EF-CEFD-4B89-8098-793830C49468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1601,7 @@
         <v>0.1</v>
       </c>
       <c r="I11" s="3">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="J11" s="3">
         <v>100</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="N11" s="1">
         <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+(W11-22)*1+P11/300+S11*2</f>
-        <v>20.593333333333327</v>
+        <v>20.246666666666663</v>
       </c>
       <c r="P11">
         <v>1000</v>
@@ -1629,19 +1629,19 @@
       </c>
       <c r="T11">
         <f>T3*(1+I11)</f>
-        <v>50.309999999999995</v>
+        <v>49.879999999999995</v>
       </c>
       <c r="U11">
         <f t="shared" ref="U11:U14" si="2">U3*(1+I11)</f>
-        <v>44.459999999999994</v>
+        <v>44.08</v>
       </c>
       <c r="V11">
         <f>V3*(I11+1)</f>
-        <v>26.909999999999997</v>
+        <v>26.68</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>40.559999999999995</v>
+        <v>40.213333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">

--- a/changes/45-ammo.xlsx
+++ b/changes/45-ammo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38474EF-CEFD-4B89-8098-793830C49468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A5404-4BE4-4AC3-99E8-6FBF37B77BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,14 +1594,14 @@
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
         <v>0.1</v>
       </c>
       <c r="I11" s="3">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J11" s="3">
         <v>100</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="N11" s="1">
         <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+(W11-22)*1+P11/300+S11*2</f>
-        <v>20.246666666666663</v>
+        <v>18.953333333333337</v>
       </c>
       <c r="P11">
         <v>1000</v>
@@ -1629,19 +1629,19 @@
       </c>
       <c r="T11">
         <f>T3*(1+I11)</f>
-        <v>49.879999999999995</v>
+        <v>49.02</v>
       </c>
       <c r="U11">
         <f t="shared" ref="U11:U14" si="2">U3*(1+I11)</f>
-        <v>44.08</v>
+        <v>43.320000000000007</v>
       </c>
       <c r="V11">
         <f>V3*(I11+1)</f>
-        <v>26.68</v>
+        <v>26.220000000000002</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>40.213333333333331</v>
+        <v>39.520000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>-0.11</v>
+        <v>-0.13</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" ref="N12:N15" si="3">C12-D12*20-E12*0.8-F12*0.6-H12*5+(W12-22)*1+P12/300+S12*2</f>
-        <v>20.300000000000004</v>
+        <v>19.46</v>
       </c>
       <c r="P12">
         <v>900</v>
@@ -1696,19 +1696,19 @@
       </c>
       <c r="T12">
         <f t="shared" ref="T12:T15" si="4">T4*(1+I12)</f>
-        <v>42.72</v>
+        <v>41.76</v>
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>38.270000000000003</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="V12">
         <f t="shared" ref="V12:V15" si="5">V4*(I12+1)</f>
-        <v>31.150000000000002</v>
+        <v>30.45</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
-        <v>37.380000000000003</v>
+        <v>36.54</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
         <v>0.1</v>
       </c>
       <c r="I13" s="3">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J13" s="3">
         <v>80</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>20.326666666666675</v>
+        <v>19.573333333333338</v>
       </c>
       <c r="P13">
         <v>980</v>
@@ -1763,19 +1763,19 @@
       </c>
       <c r="T13">
         <f t="shared" si="4"/>
-        <v>48.6</v>
+        <v>47.7</v>
       </c>
       <c r="U13">
         <f t="shared" si="2"/>
-        <v>41.040000000000006</v>
+        <v>40.28</v>
       </c>
       <c r="V13">
         <f t="shared" si="5"/>
-        <v>32.400000000000006</v>
+        <v>31.8</v>
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
-        <v>40.680000000000007</v>
+        <v>39.926666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="J14" s="3">
         <v>80</v>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="3"/>
-        <v>19.056666666666668</v>
+        <v>18.303333333333338</v>
       </c>
       <c r="P14">
         <v>980</v>
@@ -1830,19 +1830,19 @@
       </c>
       <c r="T14">
         <f t="shared" si="4"/>
-        <v>47.25</v>
+        <v>46.35</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>39.9</v>
+        <v>39.14</v>
       </c>
       <c r="V14">
         <f t="shared" si="5"/>
-        <v>31.5</v>
+        <v>30.900000000000002</v>
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
-        <v>39.550000000000004</v>
+        <v>38.796666666666674</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1862,14 +1862,14 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
         <v>0.1</v>
       </c>
       <c r="I15" s="3">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="J15" s="3">
         <v>170</v>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="3"/>
-        <v>20.746666666666666</v>
+        <v>19.213333333333335</v>
       </c>
       <c r="P15">
         <v>1070</v>
@@ -1897,19 +1897,19 @@
       </c>
       <c r="T15">
         <f t="shared" si="4"/>
-        <v>46.800000000000004</v>
+        <v>45.76</v>
       </c>
       <c r="U15">
         <f>U7*(1+I15)</f>
-        <v>42.300000000000004</v>
+        <v>41.36</v>
       </c>
       <c r="V15">
         <f t="shared" si="5"/>
-        <v>36.9</v>
+        <v>36.08</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>41.06666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
